--- a/biology/Histoire de la zoologie et de la botanique/Kenneth_Stafford_Norris/Kenneth_Stafford_Norris.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Kenneth_Stafford_Norris/Kenneth_Stafford_Norris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kenneth Stafford Norris ou Kenneth S. Norris[1] (11 août 1924 — 16 août 1998[2]) est un biologiste spécialisé sur les mammifères marins, un conservationniste et un naturaliste.
-Norris a été un pionnier dans l’étude de l'écholocation du dauphin[3],[4]. Il a aidé à créer l’University of California Natural Reserve System (en) et a travaillé sur le Marine Mammal Protection Act de 1972[3]. Il a été professeur à l’Université de Californie à Los Angeles et à l’Université de Californie à Santa Cruz[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kenneth Stafford Norris ou Kenneth S. Norris (11 août 1924 — 16 août 1998) est un biologiste spécialisé sur les mammifères marins, un conservationniste et un naturaliste.
+Norris a été un pionnier dans l’étude de l'écholocation du dauphin,. Il a aidé à créer l’University of California Natural Reserve System (en) et a travaillé sur le Marine Mammal Protection Act de 1972. Il a été professeur à l’Université de Californie à Los Angeles et à l’Université de Californie à Santa Cruz.
 </t>
         </is>
       </c>
